--- a/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2023/37_Hatay_2023.xlsx
+++ b/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2023/37_Hatay_2023.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="BuÇalışmaKitabı" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\Yazılarım\İllere Göre Tahsilat Tahakkuk 2023\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\İllere Göre Tahsilat Tahakkuk 2023\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3376130F-FA4C-4594-B943-371AE621EEDB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{84050B91-282B-42DE-B5FE-224D6B22CA65}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="669" xr2:uid="{2ACC2D0A-1A3B-44A9-B2BA-79BB57B368A0}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="669" xr2:uid="{066747B4-1166-474D-B007-3DD6FBE12A1C}"/>
   </bookViews>
   <sheets>
     <sheet name="ARALIK" sheetId="124" r:id="rId1"/>
@@ -917,13 +917,13 @@
   </cellXfs>
   <cellStyles count="8">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1" xr:uid="{0F177C69-27BF-4AF3-9E47-17BA22AD9CCB}"/>
-    <cellStyle name="Normal 2 2" xfId="2" xr:uid="{1DBE7CA6-64BD-4714-B693-79F2C765156E}"/>
-    <cellStyle name="Normal 3" xfId="3" xr:uid="{770C3034-C417-46E6-AB9E-4D372828DACB}"/>
-    <cellStyle name="Normal_genel_gelir_det3" xfId="4" xr:uid="{4C3C459A-3D46-4C5F-BD7B-CED5CA9B2D92}"/>
-    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="5" xr:uid="{349AFCEE-1407-4115-8589-531882DDA283}"/>
-    <cellStyle name="Not 2" xfId="6" xr:uid="{CA3F5A81-E4B0-4C0A-B349-91B99F7B7393}"/>
-    <cellStyle name="Virgül [0]_29dan32ye" xfId="7" xr:uid="{BBD490E0-5120-4FC8-87B8-552BBC5EAD20}"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{67ABC2F1-3254-4569-998C-24864C78AEA5}"/>
+    <cellStyle name="Normal 2 2" xfId="2" xr:uid="{69EE11AC-D8AD-484E-965D-F0E909A0CE9E}"/>
+    <cellStyle name="Normal 3" xfId="3" xr:uid="{FA49DCD9-92AC-4EC1-AD71-B3E7046ABE6F}"/>
+    <cellStyle name="Normal_genel_gelir_det3" xfId="4" xr:uid="{8D26A926-C524-4596-AE5A-E38C82BAD921}"/>
+    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="5" xr:uid="{14ACCFC7-38C5-4A95-A843-B981D05CF456}"/>
+    <cellStyle name="Not 2" xfId="6" xr:uid="{0DCE47E3-D1D5-4F30-A4E8-51B7711A2E12}"/>
+    <cellStyle name="Virgül [0]_29dan32ye" xfId="7" xr:uid="{094ECD89-5234-4B79-A29D-731CC8947146}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1293,7 +1293,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{999714AA-7E27-40D3-B27C-FE2627445CFB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A21E8E6D-9A12-41E7-A3EF-3D844457AAC0}">
   <dimension ref="B2:F105"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -2613,7 +2613,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D74EE4E-8971-4D86-8EA4-4D8F98C01401}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B9CA6FDB-847B-4AC2-B823-B810D70FE22D}">
   <sheetPr codeName="Sayfa8"/>
   <dimension ref="B2:F101"/>
   <sheetViews>
@@ -3889,7 +3889,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{57111606-A62F-4942-B8E3-B09C86B5B45B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3514DF48-4E44-43DC-ADC5-3AEE45DC23A8}">
   <sheetPr codeName="Sayfa9"/>
   <dimension ref="B2:F101"/>
   <sheetViews>
@@ -5159,7 +5159,7 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C77A94B5-F97A-47FB-86C0-3295E412B944}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D8EEEAF-6EFE-4AA2-8051-3222FF5E36DA}">
   <sheetPr codeName="Sayfa10"/>
   <dimension ref="B2:F101"/>
   <sheetViews>
@@ -6415,7 +6415,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C3BC5F9A-9EFE-43C3-907A-C5CD4540F836}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{89B62276-D370-4A48-8E3C-53A228B06576}">
   <sheetPr codeName="Sayfa11"/>
   <dimension ref="B2:F104"/>
   <sheetViews>
@@ -7735,7 +7735,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D721DBDF-3727-4C8A-9CDB-A9F47CCD021C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C9DCBDD3-26F8-4568-A8B0-6E5A9DB95AB5}">
   <sheetPr codeName="Sayfa1"/>
   <dimension ref="B2:F104"/>
   <sheetViews>
@@ -9051,7 +9051,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DEB900BF-0DB4-4DBE-B92F-31D5A871C725}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{191DB293-6769-4699-9C6E-FCF90E288F96}">
   <sheetPr codeName="Sayfa2"/>
   <dimension ref="B2:F104"/>
   <sheetViews>
@@ -10367,7 +10367,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C01A4A56-4BD5-4EB9-B1FC-4E0D507380BE}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F699D8A-61A3-4118-A7FC-BC226AE6FBF4}">
   <sheetPr codeName="Sayfa3"/>
   <dimension ref="B2:F104"/>
   <sheetViews>
@@ -11683,7 +11683,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8CEFBB9E-A3B5-4F55-9790-059BAB7DE18A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E5E9EAE-EDC7-434B-AD66-22A82F9C2F8A}">
   <sheetPr codeName="Sayfa4"/>
   <dimension ref="B2:F104"/>
   <sheetViews>
@@ -12999,7 +12999,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F651B85-48AB-481B-AD70-83E3D42E8F2E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{95CE652C-1802-4913-9F34-FAF9FA87C831}">
   <sheetPr codeName="Sayfa5"/>
   <dimension ref="B2:F103"/>
   <sheetViews>
@@ -14299,7 +14299,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5C0AC0F-D368-4F35-809A-C865C6FFD765}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{43E8337C-2502-483C-BFED-9708572A0B46}">
   <sheetPr codeName="Sayfa6"/>
   <dimension ref="B2:F103"/>
   <sheetViews>
@@ -15595,7 +15595,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7EF19FE5-EBB3-422B-AC4F-8D8C9AE7C421}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{10336D16-E6A9-4EAC-B666-CCE97D8DAE02}">
   <sheetPr codeName="Sayfa7"/>
   <dimension ref="B2:F102"/>
   <sheetViews>
